--- a/_reference/German OOBs.xlsx
+++ b/_reference/German OOBs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BRD Fallschirmjaeger" sheetId="25" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>TOTAL</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Personnel ea</t>
   </si>
   <si>
+    <t>Truck</t>
+  </si>
+  <si>
     <t>MILAN</t>
   </si>
   <si>
@@ -94,9 +97,6 @@
     <t>MG3</t>
   </si>
   <si>
-    <t>BRD Panzer Brigade</t>
-  </si>
-  <si>
     <t>HQ</t>
   </si>
   <si>
@@ -106,9 +106,6 @@
     <t>PzGr Btn</t>
   </si>
   <si>
-    <t>(war btn?)</t>
-  </si>
-  <si>
     <t>Artillery</t>
   </si>
   <si>
@@ -121,28 +118,43 @@
     <t>Marder</t>
   </si>
   <si>
-    <t>120mm Mortar</t>
-  </si>
-  <si>
-    <t>152 SPH</t>
-  </si>
-  <si>
-    <t>TOW Jaguar</t>
-  </si>
-  <si>
     <t>BRD Panzergrenadier Brigade</t>
   </si>
   <si>
-    <t>Luchs</t>
-  </si>
-  <si>
     <t>MG-3</t>
   </si>
   <si>
     <t>PzF-44</t>
   </si>
   <si>
-    <t>12*3</t>
+    <t>BRD Panzerbrigade</t>
+  </si>
+  <si>
+    <t>G3-SG1</t>
+  </si>
+  <si>
+    <t>M113A2</t>
+  </si>
+  <si>
+    <t>M109G</t>
+  </si>
+  <si>
+    <t>Jaguar 2</t>
+  </si>
+  <si>
+    <t>SpPz Luchs</t>
+  </si>
+  <si>
+    <t>Note 380 Leopard II tanks were produced between 1979 and 1982</t>
+  </si>
+  <si>
+    <t>This is 3 brigades of tanks</t>
+  </si>
+  <si>
+    <t>Mixed btn</t>
+  </si>
+  <si>
+    <t>M113 M252</t>
   </si>
 </sst>
 </file>
@@ -554,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T1" s="2"/>
       <c r="U1" s="6" t="s">
@@ -588,19 +600,19 @@
         <v>0</v>
       </c>
       <c r="W1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB1" s="8"/>
       <c r="AC1" s="9"/>
@@ -687,7 +699,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
@@ -726,7 +738,7 @@
         <v>98</v>
       </c>
       <c r="T3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U3" s="5">
         <v>1</v>
@@ -755,7 +767,7 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
         <v>4</v>
@@ -780,7 +792,7 @@
         <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="U4" s="5">
         <v>4</v>
@@ -805,7 +817,7 @@
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="5">
         <v>3</v>
@@ -828,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="T5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U5" s="5">
         <v>3</v>
@@ -853,7 +865,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -872,7 +884,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="T6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6" s="5">
         <v>2</v>
@@ -897,7 +909,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -920,7 +932,7 @@
         <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U7" s="5">
         <v>1</v>
@@ -943,7 +955,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5">
         <v>1</v>
@@ -971,7 +983,7 @@
         <v>30</v>
       </c>
       <c r="T8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U8" s="5">
         <v>1</v>
@@ -996,7 +1008,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
         <v>4</v>
@@ -1015,7 +1027,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="T9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U9" s="5">
         <v>4</v>
@@ -1040,7 +1052,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>1</v>
@@ -1062,7 +1074,7 @@
         <v>8</v>
       </c>
       <c r="T10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U10" s="5">
         <v>1</v>
@@ -1087,7 +1099,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
@@ -1109,7 +1121,7 @@
         <v>24</v>
       </c>
       <c r="T11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U11" s="5">
         <v>1</v>
@@ -1136,7 +1148,7 @@
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
@@ -1158,7 +1170,7 @@
         <v>24</v>
       </c>
       <c r="T12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U12" s="5">
         <v>1</v>
@@ -1310,10 +1322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,9 +1339,9 @@
     <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1350,77 +1362,77 @@
         <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" s="9"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <f>SUM(D2:O2)</f>
-        <v>1080</v>
+        <v>1346</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:L2" si="0">SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
-        <v>0</v>
+        <f>SUMPRODUCT(D3:D56,$B$3:$B$56)</f>
+        <v>164</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" si="0"/>
-        <v>164</v>
+        <f>SUMPRODUCT(E3:E56,$B$3:$B$56)</f>
+        <v>188</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" si="0"/>
-        <v>164</v>
+        <f>SUMPRODUCT(F3:F56,$B$3:$B$56)</f>
+        <v>188</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="0"/>
-        <v>435</v>
+        <f>SUMPRODUCT(G3:G56,$B$3:$B$56)</f>
+        <v>429</v>
       </c>
       <c r="H2" s="3">
-        <f t="shared" si="0"/>
-        <v>155</v>
+        <f>SUMPRODUCT(H3:H56,$B$3:$B$56)</f>
+        <v>167</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" si="0"/>
-        <v>90</v>
+        <f>SUMPRODUCT(I3:I56,$B$3:$B$56)</f>
+        <v>126</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" si="0"/>
+        <f>SUMPRODUCT(J3:J56,$B$3:$B$56)</f>
         <v>36</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="L2" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <f>SUMPRODUCT(K3:K56,$B$3:$B$56)</f>
+        <v>48</v>
+      </c>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C12" si="1">SUM(D3:O3)</f>
-        <v>108</v>
-      </c>
-      <c r="D3" s="3"/>
+        <f t="shared" ref="C3:C15" si="0">SUM(D3:O3)</f>
+        <v>110</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
       <c r="E3" s="10">
         <v>41</v>
       </c>
@@ -1436,18 +1448,20 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="1"/>
-        <v>44</v>
-      </c>
-      <c r="D4" s="3"/>
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="3">
@@ -1457,96 +1471,95 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="3">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3">
+        <f>11+4</f>
+        <v>15</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <f>SUM(D6:O6)</f>
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H6" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
+        <f>SUM(D7:O7)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
         <v>18</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="5">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>12</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D9" s="3"/>
@@ -1554,66 +1567,146 @@
       <c r="F9" s="10"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="K9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B10" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>216</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="G10" s="3">
-        <f>6*4*3*3</f>
-        <v>216</v>
-      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B11" s="5">
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
       <c r="G11" s="3">
-        <f>4*3*3</f>
-        <v>36</v>
+        <f>5*3*3*3</f>
+        <v>135</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>27</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="G12" s="3" t="s">
-        <v>38</v>
+      <c r="G12" s="3">
+        <v>27</v>
       </c>
       <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3">
+        <v>27</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="3">
+        <f>27</f>
+        <v>27</v>
+      </c>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1622,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1633,15 +1726,16 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -1662,16 +1756,16 @@
         <v>25</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>28</v>
       </c>
       <c r="L1" s="9"/>
     </row>
@@ -1682,31 +1776,31 @@
       <c r="B2" s="5"/>
       <c r="C2" s="4">
         <f>SUM(D2:O2)</f>
-        <v>847</v>
+        <v>1583</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:L2" si="0">SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>429</v>
       </c>
       <c r="G2" s="3">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>429</v>
       </c>
       <c r="H2" s="3">
         <f t="shared" si="0"/>
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="I2" s="3">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="J2" s="3">
         <f t="shared" si="0"/>
@@ -1714,7 +1808,7 @@
       </c>
       <c r="K2" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L2" s="3">
         <f t="shared" si="0"/>
@@ -1723,7 +1817,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5">
         <v>4</v>
@@ -1748,16 +1842,18 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="5">
         <v>3</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" si="1"/>
-        <v>77</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
       <c r="E4" s="10"/>
       <c r="F4" s="3">
         <v>33</v>
@@ -1771,92 +1867,94 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
       <c r="E5" s="10"/>
       <c r="F5" s="3">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
-        <v>27</v>
-      </c>
-      <c r="H5" s="3">
-        <v>9</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4">
         <f>SUM(D6:O6)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" s="3">
-        <v>6</v>
-      </c>
-      <c r="H6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
       <c r="H7" s="3"/>
-      <c r="I7">
-        <v>18</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="10"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8">
-        <v>12</v>
+      <c r="I8" s="3">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>3</v>
@@ -1870,44 +1968,124 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="K9">
+      <c r="J9">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
       <c r="C10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
+      <c r="K10">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
       <c r="C11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="3">
+        <v>135</v>
+      </c>
+      <c r="G11" s="3">
+        <v>135</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
       <c r="C12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3">
+        <v>27</v>
+      </c>
+      <c r="G12" s="3">
+        <v>27</v>
+      </c>
       <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_reference/German OOBs.xlsx
+++ b/_reference/German OOBs.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomwh\Documents\GitHub\QJM_Wargame\_reference\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BRD Fallschirmjaeger" sheetId="25" r:id="rId1"/>
     <sheet name="Pz Bde" sheetId="26" r:id="rId2"/>
     <sheet name="PzGr Bde" sheetId="28" r:id="rId3"/>
+    <sheet name="GJBde" sheetId="29" r:id="rId4"/>
+    <sheet name="GJBtn" sheetId="30" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="55">
   <si>
     <t>TOTAL</t>
   </si>
@@ -155,6 +158,42 @@
   </si>
   <si>
     <t>M113 M252</t>
+  </si>
+  <si>
+    <t>Gebirgsjager Brigade</t>
+  </si>
+  <si>
+    <t>GJ Btn</t>
+  </si>
+  <si>
+    <t>Gebirgsjager Battalion</t>
+  </si>
+  <si>
+    <t>GJ Co</t>
+  </si>
+  <si>
+    <t>Schw. Co</t>
+  </si>
+  <si>
+    <t>Carl Gustav</t>
+  </si>
+  <si>
+    <t>AT Company</t>
+  </si>
+  <si>
+    <t>Engineer company</t>
+  </si>
+  <si>
+    <t>Recce company</t>
+  </si>
+  <si>
+    <t>Artillery battalion</t>
+  </si>
+  <si>
+    <t>105mm howitzer</t>
+  </si>
+  <si>
+    <t>Jagdpanzer</t>
   </si>
 </sst>
 </file>
@@ -538,26 +577,26 @@
       <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" customWidth="1"/>
-    <col min="23" max="23" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" customWidth="1"/>
+    <col min="21" max="21" width="4.59765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.265625" customWidth="1"/>
+    <col min="23" max="23" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.86328125" customWidth="1"/>
+    <col min="25" max="25" width="6.265625" customWidth="1"/>
     <col min="26" max="26" width="7" customWidth="1"/>
     <col min="27" max="27" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="129" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="6" t="s">
         <v>2</v>
@@ -618,7 +657,7 @@
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,26 +717,26 @@
         <v>72</v>
       </c>
       <c r="X2" s="3">
-        <f t="shared" ref="X2:AA2" si="1">SUMPRODUCT(X3:X16,$U$3:$U$16)</f>
+        <f>SUMPRODUCT(X3:X16,$U$3:$U$16)</f>
         <v>120</v>
       </c>
       <c r="Y2" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT(Y3:Y16,$U$3:$U$16)</f>
         <v>120</v>
       </c>
       <c r="Z2" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT(Z3:Z16,$U$3:$U$16)</f>
         <v>120</v>
       </c>
       <c r="AA2" s="3">
-        <f t="shared" si="1"/>
+        <f>SUMPRODUCT(AA3:AA16,$U$3:$U$16)</f>
         <v>144</v>
       </c>
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -705,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C16" si="2">SUM(D3:O3)</f>
+        <f t="shared" ref="C3:C16" si="1">SUM(D3:O3)</f>
         <v>1316</v>
       </c>
       <c r="D3" s="3">
@@ -744,7 +783,7 @@
         <v>1</v>
       </c>
       <c r="V3" s="4">
-        <f t="shared" ref="V3:V16" si="3">SUM(W3:AA3)</f>
+        <f t="shared" ref="V3:V16" si="2">SUM(W3:AA3)</f>
         <v>366</v>
       </c>
       <c r="W3" s="3">
@@ -765,7 +804,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -773,7 +812,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="D4" s="3">
@@ -798,24 +837,24 @@
         <v>4</v>
       </c>
       <c r="V4" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="10">
-        <f t="shared" ref="Y4:Y16" si="4">X4</f>
+        <f t="shared" ref="Y4:Y16" si="3">X4</f>
         <v>0</v>
       </c>
       <c r="Z4" s="3">
-        <f t="shared" ref="Z4:Z10" si="5">X4</f>
+        <f t="shared" ref="Z4:Z10" si="4">X4</f>
         <v>0</v>
       </c>
       <c r="AA4" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -823,7 +862,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="D5" s="3"/>
@@ -846,24 +885,24 @@
         <v>3</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA5" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -890,7 +929,7 @@
         <v>2</v>
       </c>
       <c r="V6" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="W6" s="3"/>
@@ -898,16 +937,16 @@
         <v>4</v>
       </c>
       <c r="Y6" s="10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Z6" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="Z6" s="3">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -915,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="D7" s="3">
@@ -938,22 +977,22 @@
         <v>1</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z7" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -961,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="D8" s="3">
@@ -989,24 +1028,24 @@
         <v>1</v>
       </c>
       <c r="V8" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA8" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1053,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D9" s="3"/>
@@ -1033,24 +1072,24 @@
         <v>4</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA9" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1058,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="D10" s="3"/>
@@ -1080,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="W10" s="3"/>
@@ -1088,16 +1127,16 @@
         <v>6</v>
       </c>
       <c r="Y10" s="10">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="Z10" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="Z10" s="3">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="D11" s="3"/>
@@ -1127,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="W11" s="3">
@@ -1137,16 +1176,16 @@
         <v>12</v>
       </c>
       <c r="Y11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="Z11" s="3">
-        <f t="shared" ref="Z11:Z16" si="6">X11</f>
+        <f t="shared" ref="Z11:Z16" si="5">X11</f>
         <v>12</v>
       </c>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1154,7 +1193,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="D12" s="3"/>
@@ -1176,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="V12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="W12" s="3">
@@ -1186,19 +1225,19 @@
         <v>12</v>
       </c>
       <c r="Y12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="Z12" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B13" s="5"/>
       <c r="C13" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="3"/>
@@ -1208,25 +1247,25 @@
       <c r="H13" s="3"/>
       <c r="U13" s="5"/>
       <c r="V13" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z13" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
       <c r="C14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D14" s="3"/>
@@ -1235,25 +1274,25 @@
       <c r="H14" s="3"/>
       <c r="U14" s="5"/>
       <c r="V14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B15" s="5"/>
       <c r="C15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D15" s="3"/>
@@ -1263,25 +1302,25 @@
       <c r="H15" s="3"/>
       <c r="U15" s="5"/>
       <c r="V15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z15" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="B16" s="5"/>
       <c r="C16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="3"/>
@@ -1292,26 +1331,26 @@
       <c r="I16" s="3"/>
       <c r="U16" s="5"/>
       <c r="V16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Z16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
     </row>
-    <row r="21" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="12:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="12:12" x14ac:dyDescent="0.45">
       <c r="L22" s="3"/>
     </row>
   </sheetData>
@@ -1324,22 +1363,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K15"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1376,7 +1415,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1386,40 +1425,40 @@
         <v>1346</v>
       </c>
       <c r="D2" s="3">
-        <f>SUMPRODUCT(D3:D56,$B$3:$B$56)</f>
+        <f t="shared" ref="D2:K2" si="0">SUMPRODUCT(D3:D56,$B$3:$B$56)</f>
         <v>164</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMPRODUCT(E3:E56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="F2" s="3">
-        <f>SUMPRODUCT(F3:F56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>188</v>
       </c>
       <c r="G2" s="3">
-        <f>SUMPRODUCT(G3:G56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>429</v>
       </c>
       <c r="H2" s="3">
-        <f>SUMPRODUCT(H3:H56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>167</v>
       </c>
       <c r="I2" s="3">
-        <f>SUMPRODUCT(I3:I56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>126</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMPRODUCT(J3:J56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="K2" s="3">
-        <f>SUMPRODUCT(K3:K56,$B$3:$B$56)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1427,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C15" si="0">SUM(D3:O3)</f>
+        <f t="shared" ref="C3:C15" si="1">SUM(D3:O3)</f>
         <v>110</v>
       </c>
       <c r="D3" s="3">
@@ -1448,7 +1487,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1456,7 +1495,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="D4" s="3">
@@ -1471,7 +1510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1479,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D5" s="3"/>
@@ -1491,7 +1530,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D6" s="3"/>
@@ -1512,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1531,7 +1570,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1539,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D8" s="3"/>
@@ -1551,7 +1590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1559,7 +1598,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D9" s="3"/>
@@ -1572,7 +1611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1580,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
@@ -1592,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1600,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>135</v>
       </c>
       <c r="D11" s="3"/>
@@ -1610,7 +1649,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1618,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D12" s="3"/>
@@ -1629,7 +1668,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -1637,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D13" s="3"/>
@@ -1648,7 +1687,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -1656,7 +1695,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D14" s="3"/>
@@ -1668,7 +1707,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1676,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>282</v>
       </c>
       <c r="D15">
@@ -1698,12 +1737,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1717,23 +1756,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -1769,7 +1808,7 @@
       </c>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1823,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C12" si="1">SUM(D3:O3)</f>
+        <f t="shared" ref="C3:C15" si="1">SUM(D3:O3)</f>
         <v>67</v>
       </c>
       <c r="D3" s="3"/>
@@ -1840,7 +1879,7 @@
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1865,7 +1904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1888,7 +1927,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1911,7 +1950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1932,7 +1971,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1952,7 +1991,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1972,7 +2011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +2030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -2012,7 +2051,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -2033,13 +2072,17 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>32</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
+      <c r="C13" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="F13">
         <v>27</v>
       </c>
@@ -2047,13 +2090,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>34</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
+      <c r="C14" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="F14">
         <v>27</v>
       </c>
@@ -2061,13 +2108,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>3</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
+      <c r="C15" s="4">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
       <c r="D15">
         <v>150</v>
       </c>
@@ -2086,6 +2137,683 @@
       <c r="I15">
         <v>36</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="6.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
+        <f>SUM(D2:O2)</f>
+        <v>3584</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:L2" si="0">SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>238</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="J2" s="3">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+      <c r="K2" s="3">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="L2" s="3">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C10" si="1">SUM(D3:O3)</f>
+        <v>2024</v>
+      </c>
+      <c r="D3" s="3">
+        <v>128</v>
+      </c>
+      <c r="E3" s="10">
+        <v>430</v>
+      </c>
+      <c r="F3" s="3">
+        <v>430</v>
+      </c>
+      <c r="G3" s="3">
+        <v>430</v>
+      </c>
+      <c r="H3" s="3">
+        <v>430</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3">
+        <v>88</v>
+      </c>
+      <c r="K3" s="3">
+        <v>88</v>
+      </c>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10">
+        <v>70</v>
+      </c>
+      <c r="F4" s="3">
+        <v>70</v>
+      </c>
+      <c r="G4" s="3">
+        <v>70</v>
+      </c>
+      <c r="H4" s="3">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3">
+        <v>8</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>218</v>
+      </c>
+      <c r="D5" s="3">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10">
+        <v>44</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44</v>
+      </c>
+      <c r="G5" s="3">
+        <v>44</v>
+      </c>
+      <c r="H5" s="3">
+        <v>44</v>
+      </c>
+      <c r="J5" s="3">
+        <v>12</v>
+      </c>
+      <c r="K5" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D6" s="3">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>12</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="3">
+        <v>6</v>
+      </c>
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10">
+        <v>16</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16</v>
+      </c>
+      <c r="H8" s="3">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10">
+        <v>8</v>
+      </c>
+      <c r="F9" s="3">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <f>SUM(D10:O10)</f>
+        <v>170</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3">
+        <v>20</v>
+      </c>
+      <c r="J10" s="3">
+        <v>16</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4">
+        <f>SUM(D11:O11)</f>
+        <v>17</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <f>SUM(D12:O12)</f>
+        <v>18</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="L12">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.86328125" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="4.9296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="3.9296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="8"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4">
+        <f>SUM(D2:O2)</f>
+        <v>720</v>
+      </c>
+      <c r="D2" s="3">
+        <f t="shared" ref="D2:J2" si="0">SUMPRODUCT(D3:D54,$B$3:$B$54)</f>
+        <v>186</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H2" s="3">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C12" si="1">SUM(D3:O3)</f>
+        <v>430</v>
+      </c>
+      <c r="D3" s="3">
+        <v>128</v>
+      </c>
+      <c r="E3" s="10">
+        <v>88</v>
+      </c>
+      <c r="F3" s="10">
+        <v>88</v>
+      </c>
+      <c r="G3" s="10">
+        <v>88</v>
+      </c>
+      <c r="H3" s="3">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="10">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10">
+        <v>18</v>
+      </c>
+      <c r="H4" s="3">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10">
+        <v>12</v>
+      </c>
+      <c r="F5" s="10">
+        <v>12</v>
+      </c>
+      <c r="G5" s="10">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <f>SUM(D6:O6)</f>
+        <v>12</v>
+      </c>
+      <c r="D6" s="3">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="5"/>
+      <c r="C12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
